--- a/NRI_STLF_Data/LoadData/L_system93.xlsx
+++ b/NRI_STLF_Data/LoadData/L_system93.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\karami\Works\LoadData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="15480" windowHeight="10560"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -73,6 +78,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -120,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -155,7 +163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC365"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A338" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A350" workbookViewId="0">
       <selection activeCell="F362" sqref="F362:AC365"/>
     </sheetView>
   </sheetViews>
@@ -32517,6 +32525,78 @@
       <c r="E362">
         <v>1</v>
       </c>
+      <c r="F362">
+        <v>25388.061465999999</v>
+      </c>
+      <c r="G362">
+        <v>23846.777543</v>
+      </c>
+      <c r="H362">
+        <v>22989.029181999995</v>
+      </c>
+      <c r="I362">
+        <v>22648.786975999999</v>
+      </c>
+      <c r="J362">
+        <v>22647.991807999999</v>
+      </c>
+      <c r="K362">
+        <v>22672.365645000002</v>
+      </c>
+      <c r="L362">
+        <v>22641.841521999999</v>
+      </c>
+      <c r="M362">
+        <v>23866.682564000002</v>
+      </c>
+      <c r="N362">
+        <v>26067.785987999996</v>
+      </c>
+      <c r="O362">
+        <v>27503.061127000001</v>
+      </c>
+      <c r="P362">
+        <v>28039.923257999999</v>
+      </c>
+      <c r="Q362">
+        <v>28476.687016</v>
+      </c>
+      <c r="R362">
+        <v>28286.910985999995</v>
+      </c>
+      <c r="S362">
+        <v>27704.753528000001</v>
+      </c>
+      <c r="T362">
+        <v>27615.600000000002</v>
+      </c>
+      <c r="U362">
+        <v>27205.109806999997</v>
+      </c>
+      <c r="V362">
+        <v>27099.910439000003</v>
+      </c>
+      <c r="W362">
+        <v>27940.797302000006</v>
+      </c>
+      <c r="X362">
+        <v>29827.399010000001</v>
+      </c>
+      <c r="Y362">
+        <v>30551.072594999998</v>
+      </c>
+      <c r="Z362">
+        <v>29500.422387000002</v>
+      </c>
+      <c r="AA362">
+        <v>28930.287569</v>
+      </c>
+      <c r="AB362">
+        <v>27720.624732000004</v>
+      </c>
+      <c r="AC362">
+        <v>26559.994232000005</v>
+      </c>
     </row>
     <row r="363" spans="1:29">
       <c r="A363">
@@ -32534,6 +32614,78 @@
       <c r="E363">
         <v>1</v>
       </c>
+      <c r="F363">
+        <v>24483.354969999993</v>
+      </c>
+      <c r="G363">
+        <v>23051.692879999995</v>
+      </c>
+      <c r="H363">
+        <v>22216.191438000005</v>
+      </c>
+      <c r="I363">
+        <v>22193.143857999996</v>
+      </c>
+      <c r="J363">
+        <v>22307.499999999996</v>
+      </c>
+      <c r="K363">
+        <v>22585.852945999999</v>
+      </c>
+      <c r="L363">
+        <v>22388.427577999999</v>
+      </c>
+      <c r="M363">
+        <v>23146.85153</v>
+      </c>
+      <c r="N363">
+        <v>25189.860794</v>
+      </c>
+      <c r="O363">
+        <v>26518.119047999997</v>
+      </c>
+      <c r="P363">
+        <v>27336.389130999993</v>
+      </c>
+      <c r="Q363">
+        <v>27504.887691999997</v>
+      </c>
+      <c r="R363">
+        <v>27033.515774</v>
+      </c>
+      <c r="S363">
+        <v>26447.8</v>
+      </c>
+      <c r="T363">
+        <v>26035.902303999999</v>
+      </c>
+      <c r="U363">
+        <v>25705.977928</v>
+      </c>
+      <c r="V363">
+        <v>26052.6</v>
+      </c>
+      <c r="W363">
+        <v>26647.522569000001</v>
+      </c>
+      <c r="X363">
+        <v>28789.008882000002</v>
+      </c>
+      <c r="Y363">
+        <v>29739.589053999996</v>
+      </c>
+      <c r="Z363">
+        <v>28943.289648999998</v>
+      </c>
+      <c r="AA363">
+        <v>28526.855443</v>
+      </c>
+      <c r="AB363">
+        <v>27646.132686000004</v>
+      </c>
+      <c r="AC363">
+        <v>26193.622228</v>
+      </c>
     </row>
     <row r="364" spans="1:29">
       <c r="A364">
@@ -32551,6 +32703,78 @@
       <c r="E364">
         <v>1</v>
       </c>
+      <c r="F364">
+        <v>24358.599994999997</v>
+      </c>
+      <c r="G364">
+        <v>22601.556539999998</v>
+      </c>
+      <c r="H364">
+        <v>21572.664440000004</v>
+      </c>
+      <c r="I364">
+        <v>21243.510186</v>
+      </c>
+      <c r="J364">
+        <v>21339.458275999998</v>
+      </c>
+      <c r="K364">
+        <v>21346.880681000002</v>
+      </c>
+      <c r="L364">
+        <v>21002.189554999997</v>
+      </c>
+      <c r="M364">
+        <v>21743.651667000002</v>
+      </c>
+      <c r="N364">
+        <v>23410.146899999996</v>
+      </c>
+      <c r="O364">
+        <v>24804.570055000004</v>
+      </c>
+      <c r="P364">
+        <v>25799.600000000002</v>
+      </c>
+      <c r="Q364">
+        <v>25799.522765999998</v>
+      </c>
+      <c r="R364">
+        <v>25648.600000000002</v>
+      </c>
+      <c r="S364">
+        <v>24989.799883999996</v>
+      </c>
+      <c r="T364">
+        <v>24527.237255</v>
+      </c>
+      <c r="U364">
+        <v>24326.359319999996</v>
+      </c>
+      <c r="V364">
+        <v>24117.809458000007</v>
+      </c>
+      <c r="W364">
+        <v>25003.33844</v>
+      </c>
+      <c r="X364">
+        <v>27549.661852000005</v>
+      </c>
+      <c r="Y364">
+        <v>28589.500000000007</v>
+      </c>
+      <c r="Z364">
+        <v>28476.700000000004</v>
+      </c>
+      <c r="AA364">
+        <v>27723.948638000009</v>
+      </c>
+      <c r="AB364">
+        <v>26954.748669000001</v>
+      </c>
+      <c r="AC364">
+        <v>25299.250247999997</v>
+      </c>
     </row>
     <row r="365" spans="1:29">
       <c r="A365">
@@ -32567,6 +32791,78 @@
       </c>
       <c r="E365">
         <v>2</v>
+      </c>
+      <c r="F365">
+        <v>23671.312947999999</v>
+      </c>
+      <c r="G365">
+        <v>22112.5</v>
+      </c>
+      <c r="H365">
+        <v>20676.39616</v>
+      </c>
+      <c r="I365">
+        <v>20243.518807999997</v>
+      </c>
+      <c r="J365">
+        <v>20429.592554000003</v>
+      </c>
+      <c r="K365">
+        <v>20526.254610000004</v>
+      </c>
+      <c r="L365">
+        <v>19575.899999999998</v>
+      </c>
+      <c r="M365">
+        <v>20176.038886999995</v>
+      </c>
+      <c r="N365">
+        <v>21341.002523999996</v>
+      </c>
+      <c r="O365">
+        <v>22859.199999999997</v>
+      </c>
+      <c r="P365">
+        <v>24111.764253999998</v>
+      </c>
+      <c r="Q365">
+        <v>24703.968589000004</v>
+      </c>
+      <c r="R365">
+        <v>24717.956349999997</v>
+      </c>
+      <c r="S365">
+        <v>24194.152987999998</v>
+      </c>
+      <c r="T365">
+        <v>23794.480261999997</v>
+      </c>
+      <c r="U365">
+        <v>23232.300000000003</v>
+      </c>
+      <c r="V365">
+        <v>23117.899999999998</v>
+      </c>
+      <c r="W365">
+        <v>23853.938646000002</v>
+      </c>
+      <c r="X365">
+        <v>26568.705750000001</v>
+      </c>
+      <c r="Y365">
+        <v>28238.714281999997</v>
+      </c>
+      <c r="Z365">
+        <v>27934.419561000006</v>
+      </c>
+      <c r="AA365">
+        <v>27610.183254999996</v>
+      </c>
+      <c r="AB365">
+        <v>26846.426136000002</v>
+      </c>
+      <c r="AC365">
+        <v>25593.291219000002</v>
       </c>
     </row>
   </sheetData>
